--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="120" yWindow="30" windowWidth="28620" windowHeight="12405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Reroute to SEA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Specification</t>
   </si>
@@ -24,9 +22,6 @@
     <t>Given a</t>
   </si>
   <si>
-    <t>With Properties</t>
-  </si>
-  <si>
     <t>RoutingService</t>
   </si>
   <si>
@@ -51,18 +46,6 @@
     <t>DAL</t>
   </si>
   <si>
-    <t>Itinerary</t>
-  </si>
-  <si>
-    <t>Itinerary of</t>
-  </si>
-  <si>
-    <t>Leg table of</t>
-  </si>
-  <si>
-    <t>Leg</t>
-  </si>
-  <si>
     <t>LGB</t>
   </si>
   <si>
@@ -85,6 +68,15 @@
   </si>
   <si>
     <t>Reroute to SEA</t>
+  </si>
+  <si>
+    <t>Reroute From of</t>
+  </si>
+  <si>
+    <t>ItineraryLeg table of</t>
+  </si>
+  <si>
+    <t>ItineraryLeg</t>
   </si>
 </sst>
 </file>
@@ -168,7 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,6 +176,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
@@ -193,8 +188,36 @@
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -490,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,218 +525,161 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="D7" s="8" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Specification</t>
   </si>
@@ -52,9 +52,6 @@
     <t>SEA</t>
   </si>
   <si>
-    <t>Reroute To of</t>
-  </si>
-  <si>
     <t>When</t>
   </si>
   <si>
@@ -70,13 +67,19 @@
     <t>Reroute to SEA</t>
   </si>
   <si>
-    <t>Reroute From of</t>
-  </si>
-  <si>
     <t>ItineraryLeg table of</t>
   </si>
   <si>
     <t>ItineraryLeg</t>
+  </si>
+  <si>
+    <t>RerouteFrom of</t>
+  </si>
+  <si>
+    <t>RerouteTo of</t>
+  </si>
+  <si>
+    <t>With Properties</t>
   </si>
 </sst>
 </file>
@@ -173,12 +176,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
@@ -516,7 +519,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -550,25 +553,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -583,10 +586,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -606,16 +609,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F12" s="8" t="s">
-        <v>4</v>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,22 +647,22 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -64,9 +64,6 @@
     <t>Rerouted Cargo</t>
   </si>
   <si>
-    <t>Reroute to SEA</t>
-  </si>
-  <si>
     <t>ItineraryLeg table of</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>With Properties</t>
+  </si>
+  <si>
+    <t>Reroute To Sea</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -561,7 +561,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -589,7 +589,7 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,15 +610,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="120" yWindow="30" windowWidth="28620" windowHeight="12405"/>
   </bookViews>
   <sheets>
-    <sheet name="Reroute to SEA" sheetId="1" r:id="rId1"/>
+    <sheet name="Reroute To Sea" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Specification</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Assert</t>
   </si>
   <si>
-    <t>Rerouted Cargo</t>
-  </si>
-  <si>
     <t>ItineraryLeg table of</t>
   </si>
   <si>
@@ -79,7 +76,19 @@
     <t>With Properties</t>
   </si>
   <si>
-    <t>Reroute To Sea</t>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>Reroute Cargo from HKG - DAL to HKG - SEA</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +190,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -561,7 +573,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -571,7 +583,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -589,7 +601,7 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,15 +622,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,40 +657,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Specification</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Cargo</t>
-  </si>
-  <si>
-    <t>With Creational</t>
   </si>
   <si>
     <t>Origin of</t>
@@ -531,7 +528,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +548,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -566,33 +564,33 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
@@ -601,78 +599,78 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>3</v>
@@ -680,24 +678,24 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\SampleTests\ExcelTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D469124-4420-494C-9726-24394873421F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CAA1053-1B52-4B2A-8E34-CDC7E5E33DD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="One Way Anova" sheetId="1" r:id="rId1"/>
+    <sheet name="Reroute To Sea" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -134,89 +134,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>

--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\SampleTests\ExcelTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CAA1053-1B52-4B2A-8E34-CDC7E5E33DD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0EF914B-ACCF-4E03-8C03-8E1C71EDA32B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Specification</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Destination</t>
+  </si>
+  <si>
+    <t>This example / end to end test shows the following</t>
+  </si>
+  <si>
+    <t>Nested Property Setup</t>
+  </si>
+  <si>
+    <t>Nested assertions</t>
+  </si>
+  <si>
+    <t>As long as there is a gap after the property columns, you can use the rest of the sheet to add notes and do calculations</t>
+  </si>
+  <si>
+    <t>Table property setup (using "table of")</t>
   </si>
 </sst>
 </file>
@@ -125,16 +140,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -530,10 +628,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1022"/>
+  <dimension ref="A1:I1022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -545,41 +643,58 @@
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
@@ -587,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -595,12 +710,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
@@ -608,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
@@ -616,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
@@ -624,12 +739,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
@@ -637,7 +752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
@@ -645,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
@@ -653,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
@@ -1699,7 +1814,41 @@
     <row r="1021" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1022" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD4 A6:XFD1048576 A5:G5 I5:XFD5">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="15" operator="beginsWith" text="With Properties">
+      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="14" priority="16" operator="endsWith" text=" table of">
+      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="13" priority="17" operator="endsWith" text=" of">
+      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD4 A6:XFD1048576 A5:G5 I5:XFD5">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="20">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
@@ -1713,24 +1862,24 @@
       <formula>"Specification"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="With Properties">
-      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
+      <formula>LEFT(H5,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="4" priority="6" operator="endsWith" text=" table of">
-      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
+      <formula>RIGHT(H5,LEN(" table of"))=" table of"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="3" priority="7" operator="endsWith" text=" of">
-      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
+      <formula>RIGHT(H5,LEN(" of"))=" of"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
+      <formula>AND((RIGHT(H4, 3) = " of"), H6 = "With Properties")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
+      <formula>AND(RIGHT(G5, 3) = " of", H6 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="H5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="10">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+      <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleTests/ExcelTests/Rerouting.xlsx
+++ b/SampleTests/ExcelTests/Rerouting.xlsx
@@ -747,7 +747,7 @@
     <x:row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <x:c r="E11" s="1" t="inlineStr">
         <x:is>
-          <x:t>ItineraryLeg_table of</x:t>
+          <x:t>ItineraryLeg table of</x:t>
         </x:is>
       </x:c>
       <x:c r="F11" s="1" t="s">
